--- a/employee_password_data.xlsx
+++ b/employee_password_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="326">
   <si>
     <t>Name</t>
   </si>
@@ -984,6 +984,24 @@
   </si>
   <si>
     <t>Mobile_Number</t>
+  </si>
+  <si>
+    <t>Suresh Kumar</t>
+  </si>
+  <si>
+    <t>Sureshkumar.natarajan3031@altimetrik.com</t>
+  </si>
+  <si>
+    <t>Shreeti Saha</t>
+  </si>
+  <si>
+    <t>shritisaha2012@gmail.com</t>
+  </si>
+  <si>
+    <t>KEUA6542</t>
+  </si>
+  <si>
+    <t>BYTY8456</t>
   </si>
 </sst>
 </file>
@@ -1805,10 +1823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4318,7 +4336,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3095</v>
       </c>
@@ -4344,7 +4362,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3096</v>
       </c>
@@ -4370,7 +4388,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3097</v>
       </c>
@@ -4396,7 +4414,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3098</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3099</v>
       </c>
@@ -4448,7 +4466,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3100</v>
       </c>
@@ -4473,13 +4491,70 @@
       <c r="H102" s="5" t="s">
         <v>316</v>
       </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="5">
+        <v>3500</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103" s="2">
+        <v>919952955657</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="5">
+        <v>3237</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F104" s="2">
+        <v>919163252752</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
     <hyperlink ref="G102" r:id="rId2"/>
+    <hyperlink ref="G104" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>